--- a/Assets/Data/template.xlsx
+++ b/Assets/Data/template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>wave</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,27 +46,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy5</t>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +460,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -500,29 +496,29 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -533,10 +529,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -547,10 +543,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>

--- a/Assets/Data/template.xlsx
+++ b/Assets/Data/template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>wave</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,23 +46,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy</t>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,8 +142,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D6" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D11" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="wave" name="wave">
       <xmlColumnPr mapId="1" xpath="/ROOT/table/@wave" xmlDataType="string"/>
@@ -457,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -490,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -510,15 +502,15 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -529,30 +521,100 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
         <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
